--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -210,7 +210,10 @@
     <t>x</t>
   </si>
   <si>
-    <t>Columna1</t>
+    <t>13-may</t>
+  </si>
+  <si>
+    <t>15-may</t>
   </si>
 </sst>
 </file>
@@ -245,8 +248,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,12 +269,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C31" totalsRowShown="0">
-  <autoFilter ref="A1:C31"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
-    <tableColumn id="3" name="Columna1"/>
+    <tableColumn id="3" name="13-may"/>
+    <tableColumn id="4" name="15-may"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -561,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,18 +578,21 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -594,8 +602,11 @@
       <c r="C2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -603,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -613,8 +624,11 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -622,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -632,8 +646,11 @@
       <c r="C6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -643,8 +660,11 @@
       <c r="C7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -654,8 +674,11 @@
       <c r="C8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -665,8 +688,11 @@
       <c r="C9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -676,8 +702,11 @@
       <c r="C10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -687,8 +716,11 @@
       <c r="C11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -698,8 +730,11 @@
       <c r="C12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -709,8 +744,11 @@
       <c r="C13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -720,8 +758,11 @@
       <c r="C14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -731,8 +772,11 @@
       <c r="C15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -742,8 +786,11 @@
       <c r="C16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -753,8 +800,11 @@
       <c r="C17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -764,8 +814,11 @@
       <c r="C18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -775,8 +828,11 @@
       <c r="C19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -784,7 +840,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -794,8 +850,11 @@
       <c r="C21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -805,8 +864,11 @@
       <c r="C22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -816,8 +878,11 @@
       <c r="C23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -827,8 +892,11 @@
       <c r="C24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -838,8 +906,11 @@
       <c r="C25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -849,8 +920,11 @@
       <c r="C26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -860,8 +934,11 @@
       <c r="C27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -871,8 +948,11 @@
       <c r="C28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -882,8 +962,11 @@
       <c r="C29" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -893,8 +976,11 @@
       <c r="C30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -902,6 +988,9 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
         <v>62</v>
       </c>
     </row>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="66">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>15-may</t>
+  </si>
+  <si>
+    <t>20-may</t>
   </si>
 </sst>
 </file>
@@ -269,13 +272,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0">
-  <autoFilter ref="A1:D31"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+  <autoFilter ref="A1:E31"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
     <tableColumn id="4" name="15-may"/>
+    <tableColumn id="5" name="20-may"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -566,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,7 +582,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,8 +595,11 @@
       <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -605,8 +612,11 @@
       <c r="D2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -614,7 +624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -627,8 +637,11 @@
       <c r="D4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -636,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -649,8 +662,11 @@
       <c r="D6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -663,8 +679,11 @@
       <c r="D7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -677,8 +696,11 @@
       <c r="D8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -691,8 +713,11 @@
       <c r="D9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -705,8 +730,11 @@
       <c r="D10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -719,8 +747,11 @@
       <c r="D11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -733,8 +764,11 @@
       <c r="D12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -747,8 +781,11 @@
       <c r="D13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -761,8 +798,11 @@
       <c r="D14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -775,8 +815,11 @@
       <c r="D15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -789,8 +832,11 @@
       <c r="D16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -803,8 +849,11 @@
       <c r="D17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -817,8 +866,11 @@
       <c r="D18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -831,16 +883,22 @@
       <c r="D19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -853,8 +911,11 @@
       <c r="D21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -867,8 +928,11 @@
       <c r="D22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -881,8 +945,11 @@
       <c r="D23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -895,8 +962,11 @@
       <c r="D24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -909,8 +979,11 @@
       <c r="D25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -923,8 +996,11 @@
       <c r="D26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -937,8 +1013,11 @@
       <c r="D27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -951,8 +1030,11 @@
       <c r="D28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -965,8 +1047,11 @@
       <c r="D29" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -979,8 +1064,11 @@
       <c r="D30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -991,6 +1079,9 @@
         <v>62</v>
       </c>
       <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
         <v>62</v>
       </c>
     </row>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="67">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>20-may</t>
+  </si>
+  <si>
+    <t>22-may</t>
   </si>
 </sst>
 </file>
@@ -272,14 +275,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
-  <autoFilter ref="A1:E31"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F31" totalsRowShown="0">
+  <autoFilter ref="A1:F31"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
     <tableColumn id="4" name="15-may"/>
     <tableColumn id="5" name="20-may"/>
+    <tableColumn id="6" name="22-may"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -570,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,7 +586,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,8 +602,11 @@
       <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -615,8 +622,11 @@
       <c r="E2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -624,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -640,8 +650,11 @@
       <c r="E4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -649,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -665,8 +678,11 @@
       <c r="E6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -682,8 +698,11 @@
       <c r="E7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -699,8 +718,11 @@
       <c r="E8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -716,8 +738,11 @@
       <c r="E9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -733,8 +758,11 @@
       <c r="E10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -750,8 +778,11 @@
       <c r="E11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -767,8 +798,11 @@
       <c r="E12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -784,8 +818,11 @@
       <c r="E13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -801,8 +838,11 @@
       <c r="E14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -818,8 +858,11 @@
       <c r="E15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -835,8 +878,11 @@
       <c r="E16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -852,8 +898,11 @@
       <c r="E17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -869,8 +918,11 @@
       <c r="E18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -886,8 +938,11 @@
       <c r="E19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -897,8 +952,11 @@
       <c r="E20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -914,8 +972,11 @@
       <c r="E21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -931,8 +992,11 @@
       <c r="E22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -948,8 +1012,11 @@
       <c r="E23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -965,8 +1032,11 @@
       <c r="E24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -982,8 +1052,11 @@
       <c r="E25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -999,8 +1072,11 @@
       <c r="E26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1016,8 +1092,11 @@
       <c r="E27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1033,8 +1112,11 @@
       <c r="E28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1050,8 +1132,11 @@
       <c r="E29" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1067,8 +1152,11 @@
       <c r="E30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1082,6 +1170,9 @@
         <v>62</v>
       </c>
       <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
         <v>62</v>
       </c>
     </row>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="79">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -220,6 +220,42 @@
   </si>
   <si>
     <t>22-may</t>
+  </si>
+  <si>
+    <t>27-may</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>ESPINOZA SUAREZ ANTHONY GABRIEL</t>
+  </si>
+  <si>
+    <t>201411880</t>
+  </si>
+  <si>
+    <t>NAVARRETE MORA ADAN JOSE</t>
+  </si>
+  <si>
+    <t>201503575</t>
+  </si>
+  <si>
+    <t>RAMIREZ GARCIA CINDY VIVIANA</t>
+  </si>
+  <si>
+    <t>201311420</t>
+  </si>
+  <si>
+    <t>SAMANIEGO FIGUEROA THAILY DEL PILAR</t>
+  </si>
+  <si>
+    <t>201407552</t>
+  </si>
+  <si>
+    <t>BRAGANZA ZORILLA SAMUEL MAURICIO</t>
+  </si>
+  <si>
+    <t>201508297</t>
   </si>
 </sst>
 </file>
@@ -242,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -250,18 +286,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -275,15 +482,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F31" totalsRowShown="0">
-  <autoFilter ref="A1:F31"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="MATRICULA"/>
-    <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
-    <tableColumn id="3" name="13-may"/>
-    <tableColumn id="4" name="15-may"/>
-    <tableColumn id="5" name="20-may"/>
-    <tableColumn id="6" name="22-may"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G31" totalsRowShown="0">
+  <autoFilter ref="A1:G31"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="MATRICULA" dataDxfId="6"/>
+    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="5"/>
+    <tableColumn id="3" name="13-may" dataDxfId="4"/>
+    <tableColumn id="4" name="15-may" dataDxfId="3"/>
+    <tableColumn id="5" name="20-may" dataDxfId="2"/>
+    <tableColumn id="6" name="22-may" dataDxfId="1"/>
+    <tableColumn id="7" name="27-may" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -574,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,7 +794,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,574 +813,786 @@
       <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="C26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="C27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="C30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>62</v>
       </c>
     </row>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="80">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -45,12 +45,6 @@
     <t>ARROYO YANEZ DANIEL ALEJANDRO</t>
   </si>
   <si>
-    <t>201410440</t>
-  </si>
-  <si>
-    <t>ASTUDILLO MACIAS ANYUEL MAYKEL</t>
-  </si>
-  <si>
     <t>201608288</t>
   </si>
   <si>
@@ -256,6 +250,15 @@
   </si>
   <si>
     <t>201508297</t>
+  </si>
+  <si>
+    <t>05-jun</t>
+  </si>
+  <si>
+    <t>DURANGO ESPINOZA DAVID GERMAN</t>
+  </si>
+  <si>
+    <t>201221860</t>
   </si>
 </sst>
 </file>
@@ -278,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -301,19 +304,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -482,16 +547,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G31" totalsRowShown="0">
-  <autoFilter ref="A1:G31"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="MATRICULA" dataDxfId="6"/>
-    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="5"/>
-    <tableColumn id="3" name="13-may" dataDxfId="4"/>
-    <tableColumn id="4" name="15-may" dataDxfId="3"/>
-    <tableColumn id="5" name="20-may" dataDxfId="2"/>
-    <tableColumn id="6" name="22-may" dataDxfId="1"/>
-    <tableColumn id="7" name="27-may" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0">
+  <autoFilter ref="A1:H30"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="MATRICULA" dataDxfId="7"/>
+    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="6"/>
+    <tableColumn id="3" name="13-may" dataDxfId="5"/>
+    <tableColumn id="4" name="15-may" dataDxfId="4"/>
+    <tableColumn id="5" name="20-may" dataDxfId="3"/>
+    <tableColumn id="6" name="22-may" dataDxfId="2"/>
+    <tableColumn id="7" name="27-may" dataDxfId="1"/>
+    <tableColumn id="8" name="05-jun" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -782,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -794,7 +860,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -802,22 +868,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -825,22 +894,25 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -852,10 +924,13 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -863,35 +938,51 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -899,22 +990,25 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -922,22 +1016,25 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -945,22 +1042,25 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -968,22 +1068,25 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -991,22 +1094,25 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1014,22 +1120,25 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1037,22 +1146,25 @@
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1060,22 +1172,25 @@
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1083,22 +1198,25 @@
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1106,22 +1224,25 @@
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1129,22 +1250,25 @@
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1152,22 +1276,25 @@
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1175,64 +1302,73 @@
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1240,22 +1376,25 @@
         <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1263,22 +1402,25 @@
         <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1286,22 +1428,25 @@
         <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1309,22 +1454,25 @@
         <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1332,22 +1480,25 @@
         <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1355,22 +1506,25 @@
         <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1378,22 +1532,25 @@
         <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1401,22 +1558,25 @@
         <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1424,22 +1584,25 @@
         <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1447,110 +1610,122 @@
         <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -1558,42 +1733,45 @@
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="82">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>201221860</t>
+  </si>
+  <si>
+    <t>10-jun</t>
+  </si>
+  <si>
+    <t>12-jun</t>
   </si>
 </sst>
 </file>
@@ -356,7 +362,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -547,17 +597,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0">
-  <autoFilter ref="A1:H30"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="MATRICULA" dataDxfId="7"/>
-    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="6"/>
-    <tableColumn id="3" name="13-may" dataDxfId="5"/>
-    <tableColumn id="4" name="15-may" dataDxfId="4"/>
-    <tableColumn id="5" name="20-may" dataDxfId="3"/>
-    <tableColumn id="6" name="22-may" dataDxfId="2"/>
-    <tableColumn id="7" name="27-may" dataDxfId="1"/>
-    <tableColumn id="8" name="05-jun" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J30" totalsRowShown="0">
+  <autoFilter ref="A1:J30"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="MATRICULA" dataDxfId="9"/>
+    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="8"/>
+    <tableColumn id="3" name="13-may" dataDxfId="7"/>
+    <tableColumn id="4" name="15-may" dataDxfId="6"/>
+    <tableColumn id="5" name="20-may" dataDxfId="5"/>
+    <tableColumn id="6" name="22-may" dataDxfId="4"/>
+    <tableColumn id="7" name="27-may" dataDxfId="3"/>
+    <tableColumn id="8" name="05-jun" dataDxfId="2"/>
+    <tableColumn id="9" name="10-jun" dataDxfId="1"/>
+    <tableColumn id="10" name="12-jun" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -848,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -860,7 +912,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,8 +937,14 @@
       <c r="H1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -911,8 +969,14 @@
       <c r="H2" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -929,8 +993,14 @@
       <c r="H3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -955,8 +1025,14 @@
       <c r="H4" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -981,8 +1057,14 @@
       <c r="H5" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1007,8 +1089,12 @@
       <c r="H6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1033,8 +1119,14 @@
       <c r="H7" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1059,8 +1151,14 @@
       <c r="H8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1085,8 +1183,14 @@
       <c r="H9" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1111,8 +1215,12 @@
       <c r="H10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1137,8 +1245,14 @@
       <c r="H11" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1163,8 +1277,14 @@
       <c r="H12" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1189,8 +1309,14 @@
       <c r="H13" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1215,8 +1341,14 @@
       <c r="H14" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1241,8 +1373,14 @@
       <c r="H15" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1267,8 +1405,14 @@
       <c r="H16" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1293,8 +1437,14 @@
       <c r="H17" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1319,8 +1469,14 @@
       <c r="H18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1341,8 +1497,14 @@
       <c r="H19" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1367,8 +1529,14 @@
       <c r="H20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1393,8 +1561,14 @@
       <c r="H21" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1419,8 +1593,14 @@
       <c r="H22" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1445,8 +1625,14 @@
       <c r="H23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1471,8 +1657,14 @@
       <c r="H24" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1497,8 +1689,14 @@
       <c r="H25" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1523,8 +1721,14 @@
       <c r="H26" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1549,8 +1753,14 @@
       <c r="H27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1575,8 +1785,14 @@
       <c r="H28" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1601,8 +1817,14 @@
       <c r="H29" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1627,8 +1849,14 @@
       <c r="H30" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -1653,8 +1881,14 @@
       <c r="H31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -1674,8 +1908,14 @@
       <c r="G32" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -1698,8 +1938,14 @@
       <c r="H33" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -1724,8 +1970,14 @@
       <c r="H34" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -1750,8 +2002,14 @@
       <c r="H35" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -1771,6 +2029,9 @@
         <v>60</v>
       </c>
       <c r="H36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" t="s">
         <v>60</v>
       </c>
     </row>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="83">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>12-jun</t>
+  </si>
+  <si>
+    <t>17-jun</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -597,19 +622,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J30" totalsRowShown="0">
-  <autoFilter ref="A1:J30"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="MATRICULA" dataDxfId="9"/>
-    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="8"/>
-    <tableColumn id="3" name="13-may" dataDxfId="7"/>
-    <tableColumn id="4" name="15-may" dataDxfId="6"/>
-    <tableColumn id="5" name="20-may" dataDxfId="5"/>
-    <tableColumn id="6" name="22-may" dataDxfId="4"/>
-    <tableColumn id="7" name="27-may" dataDxfId="3"/>
-    <tableColumn id="8" name="05-jun" dataDxfId="2"/>
-    <tableColumn id="9" name="10-jun" dataDxfId="1"/>
-    <tableColumn id="10" name="12-jun" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K30" totalsRowShown="0">
+  <autoFilter ref="A1:K30"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="MATRICULA" dataDxfId="10"/>
+    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="9"/>
+    <tableColumn id="3" name="13-may" dataDxfId="8"/>
+    <tableColumn id="4" name="15-may" dataDxfId="7"/>
+    <tableColumn id="5" name="20-may" dataDxfId="6"/>
+    <tableColumn id="6" name="22-may" dataDxfId="5"/>
+    <tableColumn id="7" name="27-may" dataDxfId="4"/>
+    <tableColumn id="8" name="05-jun" dataDxfId="3"/>
+    <tableColumn id="9" name="10-jun" dataDxfId="2"/>
+    <tableColumn id="10" name="12-jun" dataDxfId="1"/>
+    <tableColumn id="11" name="17-jun" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -900,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,7 +938,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,8 +969,11 @@
       <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -975,8 +1004,11 @@
       <c r="J2" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -999,8 +1031,11 @@
       <c r="J3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1031,8 +1066,11 @@
       <c r="J4" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1063,8 +1101,11 @@
       <c r="J5" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1093,8 +1134,11 @@
         <v>60</v>
       </c>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1125,8 +1169,11 @@
       <c r="J7" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1157,8 +1204,11 @@
       <c r="J8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1189,8 +1239,11 @@
       <c r="J9" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1219,8 +1272,11 @@
       <c r="J10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1251,8 +1307,11 @@
       <c r="J11" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1283,8 +1342,11 @@
       <c r="J12" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1315,8 +1377,11 @@
       <c r="J13" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1347,8 +1412,11 @@
       <c r="J14" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1379,8 +1447,11 @@
       <c r="J15" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1411,8 +1482,11 @@
       <c r="J16" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1443,8 +1517,11 @@
       <c r="J17" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1475,8 +1552,11 @@
       <c r="J18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1503,8 +1583,11 @@
       <c r="J19" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1535,8 +1618,11 @@
       <c r="J20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1567,8 +1653,11 @@
       <c r="J21" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1599,8 +1688,11 @@
       <c r="J22" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1631,8 +1723,11 @@
       <c r="J23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1663,8 +1758,11 @@
       <c r="J24" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1695,8 +1793,11 @@
       <c r="J25" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1727,8 +1828,11 @@
       <c r="J26" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1759,8 +1863,11 @@
       <c r="J27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1791,8 +1898,11 @@
       <c r="J28" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1823,8 +1933,11 @@
       <c r="J29" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1855,8 +1968,11 @@
       <c r="J30" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -1888,7 +2004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -1914,8 +2030,11 @@
       <c r="J32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -1944,8 +2063,11 @@
       <c r="J33" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -1976,8 +2098,11 @@
       <c r="J34" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -2009,7 +2134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2032,6 +2157,9 @@
         <v>60</v>
       </c>
       <c r="J36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" t="s">
         <v>60</v>
       </c>
     </row>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="85">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>17-jun</t>
+  </si>
+  <si>
+    <t>19-jun</t>
+  </si>
+  <si>
+    <t>24-jun</t>
   </si>
 </sst>
 </file>
@@ -354,18 +360,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -622,20 +673,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K30" totalsRowShown="0">
-  <autoFilter ref="A1:K30"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="MATRICULA" dataDxfId="10"/>
-    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="9"/>
-    <tableColumn id="3" name="13-may" dataDxfId="8"/>
-    <tableColumn id="4" name="15-may" dataDxfId="7"/>
-    <tableColumn id="5" name="20-may" dataDxfId="6"/>
-    <tableColumn id="6" name="22-may" dataDxfId="5"/>
-    <tableColumn id="7" name="27-may" dataDxfId="4"/>
-    <tableColumn id="8" name="05-jun" dataDxfId="3"/>
-    <tableColumn id="9" name="10-jun" dataDxfId="2"/>
-    <tableColumn id="10" name="12-jun" dataDxfId="1"/>
-    <tableColumn id="11" name="17-jun" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M30" totalsRowShown="0">
+  <autoFilter ref="A1:M30"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="MATRICULA" dataDxfId="12"/>
+    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="11"/>
+    <tableColumn id="3" name="13-may" dataDxfId="10"/>
+    <tableColumn id="4" name="15-may" dataDxfId="9"/>
+    <tableColumn id="5" name="20-may" dataDxfId="8"/>
+    <tableColumn id="6" name="22-may" dataDxfId="7"/>
+    <tableColumn id="7" name="27-may" dataDxfId="6"/>
+    <tableColumn id="8" name="05-jun" dataDxfId="5"/>
+    <tableColumn id="9" name="10-jun" dataDxfId="4"/>
+    <tableColumn id="10" name="12-jun" dataDxfId="3"/>
+    <tableColumn id="11" name="17-jun" dataDxfId="2"/>
+    <tableColumn id="12" name="19-jun" dataDxfId="1"/>
+    <tableColumn id="13" name="24-jun" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -926,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,7 +991,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,8 +1025,14 @@
       <c r="K1" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1007,8 +1066,14 @@
       <c r="K2" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1034,8 +1099,14 @@
       <c r="K3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1069,8 +1140,14 @@
       <c r="K4" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1104,8 +1181,14 @@
       <c r="K5" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1137,8 +1220,12 @@
       <c r="K6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1172,8 +1259,14 @@
       <c r="K7" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1207,8 +1300,14 @@
       <c r="K8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1242,8 +1341,12 @@
       <c r="K9" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1275,8 +1378,14 @@
       <c r="K10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1310,8 +1419,14 @@
       <c r="K11" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1345,8 +1460,14 @@
       <c r="K12" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1380,8 +1501,14 @@
       <c r="K13" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1415,8 +1542,14 @@
       <c r="K14" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1450,8 +1583,14 @@
       <c r="K15" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1485,8 +1624,14 @@
       <c r="K16" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1665,14 @@
       <c r="K17" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1555,8 +1706,14 @@
       <c r="K18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1586,8 +1743,14 @@
       <c r="K19" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1621,8 +1784,14 @@
       <c r="K20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1656,8 +1825,14 @@
       <c r="K21" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1691,8 +1866,14 @@
       <c r="K22" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1726,8 +1907,14 @@
       <c r="K23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1761,8 +1948,14 @@
       <c r="K24" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1796,8 +1989,14 @@
       <c r="K25" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1831,8 +2030,14 @@
       <c r="K26" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1866,8 +2071,14 @@
       <c r="K27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1901,8 +2112,14 @@
       <c r="K28" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1936,8 +2153,14 @@
       <c r="K29" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1971,8 +2194,14 @@
       <c r="K30" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2003,8 +2232,14 @@
       <c r="J31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2033,8 +2268,14 @@
       <c r="K32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -2066,8 +2307,14 @@
       <c r="K33" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -2101,8 +2348,14 @@
       <c r="K34" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -2133,8 +2386,14 @@
       <c r="J35" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2160,6 +2419,12 @@
         <v>60</v>
       </c>
       <c r="K36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="6" t="s">
         <v>60</v>
       </c>
     </row>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="86">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>24-jun</t>
+  </si>
+  <si>
+    <t>26-jun</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -673,22 +698,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M30" totalsRowShown="0">
-  <autoFilter ref="A1:M30"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="MATRICULA" dataDxfId="12"/>
-    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="11"/>
-    <tableColumn id="3" name="13-may" dataDxfId="10"/>
-    <tableColumn id="4" name="15-may" dataDxfId="9"/>
-    <tableColumn id="5" name="20-may" dataDxfId="8"/>
-    <tableColumn id="6" name="22-may" dataDxfId="7"/>
-    <tableColumn id="7" name="27-may" dataDxfId="6"/>
-    <tableColumn id="8" name="05-jun" dataDxfId="5"/>
-    <tableColumn id="9" name="10-jun" dataDxfId="4"/>
-    <tableColumn id="10" name="12-jun" dataDxfId="3"/>
-    <tableColumn id="11" name="17-jun" dataDxfId="2"/>
-    <tableColumn id="12" name="19-jun" dataDxfId="1"/>
-    <tableColumn id="13" name="24-jun" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N30" totalsRowShown="0">
+  <autoFilter ref="A1:N30"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="MATRICULA" dataDxfId="13"/>
+    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="12"/>
+    <tableColumn id="3" name="13-may" dataDxfId="11"/>
+    <tableColumn id="4" name="15-may" dataDxfId="10"/>
+    <tableColumn id="5" name="20-may" dataDxfId="9"/>
+    <tableColumn id="6" name="22-may" dataDxfId="8"/>
+    <tableColumn id="7" name="27-may" dataDxfId="7"/>
+    <tableColumn id="8" name="05-jun" dataDxfId="6"/>
+    <tableColumn id="9" name="10-jun" dataDxfId="5"/>
+    <tableColumn id="10" name="12-jun" dataDxfId="4"/>
+    <tableColumn id="11" name="17-jun" dataDxfId="3"/>
+    <tableColumn id="12" name="19-jun" dataDxfId="2"/>
+    <tableColumn id="13" name="24-jun" dataDxfId="1"/>
+    <tableColumn id="14" name="26-jun" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -979,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -991,7 +1017,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1031,8 +1057,11 @@
       <c r="M1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1072,8 +1101,11 @@
       <c r="M2" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1105,8 +1137,11 @@
       <c r="M3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1146,8 +1181,11 @@
       <c r="M4" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1187,8 +1225,11 @@
       <c r="M5" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1224,8 +1265,11 @@
       <c r="M6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1265,8 +1309,11 @@
       <c r="M7" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1306,8 +1353,11 @@
       <c r="M8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1395,9 @@
       <c r="M9" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1384,8 +1435,11 @@
       <c r="M10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1425,8 +1479,9 @@
       <c r="M11" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1466,8 +1521,11 @@
       <c r="M12" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1507,8 +1565,11 @@
       <c r="M13" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1548,8 +1609,11 @@
       <c r="M14" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1589,8 +1653,11 @@
       <c r="M15" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1630,8 +1697,11 @@
       <c r="M16" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1671,8 +1741,11 @@
       <c r="M17" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1712,8 +1785,11 @@
       <c r="M18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1749,8 +1825,11 @@
       <c r="M19" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1790,8 +1869,11 @@
       <c r="M20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1831,8 +1913,11 @@
       <c r="M21" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1872,8 +1957,11 @@
       <c r="M22" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1913,8 +2001,11 @@
       <c r="M23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1954,8 +2045,11 @@
       <c r="M24" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2089,11 @@
       <c r="M25" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2036,8 +2133,11 @@
       <c r="M26" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2077,8 +2177,11 @@
       <c r="M27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2118,8 +2221,9 @@
       <c r="M28" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -2159,8 +2263,11 @@
       <c r="M29" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -2200,8 +2307,9 @@
       <c r="M30" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2238,8 +2346,11 @@
       <c r="M31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2274,8 +2385,11 @@
       <c r="M32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -2314,7 +2428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -2354,8 +2468,11 @@
       <c r="M34" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -2392,8 +2509,11 @@
       <c r="M35" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N35" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2425,6 +2545,9 @@
         <v>60</v>
       </c>
       <c r="M36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N36" s="6" t="s">
         <v>60</v>
       </c>
     </row>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="87">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>26-jun</t>
+  </si>
+  <si>
+    <t>10-jul</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -698,23 +723,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N30" totalsRowShown="0">
-  <autoFilter ref="A1:N30"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="MATRICULA" dataDxfId="13"/>
-    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="12"/>
-    <tableColumn id="3" name="13-may" dataDxfId="11"/>
-    <tableColumn id="4" name="15-may" dataDxfId="10"/>
-    <tableColumn id="5" name="20-may" dataDxfId="9"/>
-    <tableColumn id="6" name="22-may" dataDxfId="8"/>
-    <tableColumn id="7" name="27-may" dataDxfId="7"/>
-    <tableColumn id="8" name="05-jun" dataDxfId="6"/>
-    <tableColumn id="9" name="10-jun" dataDxfId="5"/>
-    <tableColumn id="10" name="12-jun" dataDxfId="4"/>
-    <tableColumn id="11" name="17-jun" dataDxfId="3"/>
-    <tableColumn id="12" name="19-jun" dataDxfId="2"/>
-    <tableColumn id="13" name="24-jun" dataDxfId="1"/>
-    <tableColumn id="14" name="26-jun" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O30" totalsRowShown="0">
+  <autoFilter ref="A1:O30"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="MATRICULA" dataDxfId="14"/>
+    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="13"/>
+    <tableColumn id="3" name="13-may" dataDxfId="12"/>
+    <tableColumn id="4" name="15-may" dataDxfId="11"/>
+    <tableColumn id="5" name="20-may" dataDxfId="10"/>
+    <tableColumn id="6" name="22-may" dataDxfId="9"/>
+    <tableColumn id="7" name="27-may" dataDxfId="8"/>
+    <tableColumn id="8" name="05-jun" dataDxfId="7"/>
+    <tableColumn id="9" name="10-jun" dataDxfId="6"/>
+    <tableColumn id="10" name="12-jun" dataDxfId="5"/>
+    <tableColumn id="11" name="17-jun" dataDxfId="4"/>
+    <tableColumn id="12" name="19-jun" dataDxfId="3"/>
+    <tableColumn id="13" name="24-jun" dataDxfId="2"/>
+    <tableColumn id="14" name="26-jun" dataDxfId="1"/>
+    <tableColumn id="15" name="10-jul" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1005,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1017,7 +1043,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,8 +1086,11 @@
       <c r="N1" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1104,8 +1133,11 @@
       <c r="N2" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1140,8 +1172,11 @@
       <c r="N3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1184,8 +1219,11 @@
       <c r="N4" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1228,8 +1266,11 @@
       <c r="N5" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1268,8 +1309,11 @@
       <c r="N6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1312,8 +1356,11 @@
       <c r="N7" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1356,8 +1403,11 @@
       <c r="N8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1396,8 +1446,11 @@
         <v>60</v>
       </c>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1438,8 +1491,11 @@
       <c r="N10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1480,8 +1536,11 @@
         <v>60</v>
       </c>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1524,8 +1583,11 @@
       <c r="N12" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1568,8 +1630,11 @@
       <c r="N13" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1612,8 +1677,11 @@
       <c r="N14" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1656,8 +1724,11 @@
       <c r="N15" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1700,8 +1771,11 @@
       <c r="N16" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1744,8 +1818,11 @@
       <c r="N17" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1788,8 +1865,11 @@
       <c r="N18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1828,8 +1908,11 @@
       <c r="N19" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1872,8 +1955,11 @@
       <c r="N20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1916,8 +2002,11 @@
       <c r="N21" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1960,8 +2049,11 @@
       <c r="N22" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="N23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2048,8 +2143,11 @@
       <c r="N24" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2092,8 +2190,11 @@
       <c r="N25" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2136,8 +2237,11 @@
       <c r="N26" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2180,8 +2284,11 @@
       <c r="N27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2222,8 +2329,11 @@
         <v>60</v>
       </c>
       <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -2266,8 +2376,11 @@
       <c r="N29" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -2308,8 +2421,11 @@
         <v>60</v>
       </c>
       <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2349,8 +2465,11 @@
       <c r="N31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2388,8 +2507,11 @@
       <c r="N32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -2427,8 +2549,11 @@
       <c r="M33" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -2471,8 +2596,11 @@
       <c r="N34" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -2512,8 +2640,11 @@
       <c r="N35" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O35" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2548,6 +2679,9 @@
         <v>60</v>
       </c>
       <c r="N36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O36" s="6" t="s">
         <v>60</v>
       </c>
     </row>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="89">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>10-jul</t>
+  </si>
+  <si>
+    <t>22-jul</t>
+  </si>
+  <si>
+    <t>24-jul</t>
   </si>
 </sst>
 </file>
@@ -378,7 +384,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -723,24 +773,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O30" totalsRowShown="0">
-  <autoFilter ref="A1:O30"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="MATRICULA" dataDxfId="14"/>
-    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="13"/>
-    <tableColumn id="3" name="13-may" dataDxfId="12"/>
-    <tableColumn id="4" name="15-may" dataDxfId="11"/>
-    <tableColumn id="5" name="20-may" dataDxfId="10"/>
-    <tableColumn id="6" name="22-may" dataDxfId="9"/>
-    <tableColumn id="7" name="27-may" dataDxfId="8"/>
-    <tableColumn id="8" name="05-jun" dataDxfId="7"/>
-    <tableColumn id="9" name="10-jun" dataDxfId="6"/>
-    <tableColumn id="10" name="12-jun" dataDxfId="5"/>
-    <tableColumn id="11" name="17-jun" dataDxfId="4"/>
-    <tableColumn id="12" name="19-jun" dataDxfId="3"/>
-    <tableColumn id="13" name="24-jun" dataDxfId="2"/>
-    <tableColumn id="14" name="26-jun" dataDxfId="1"/>
-    <tableColumn id="15" name="10-jul" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q30" totalsRowShown="0">
+  <autoFilter ref="A1:Q30"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="MATRICULA" dataDxfId="16"/>
+    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="15"/>
+    <tableColumn id="3" name="13-may" dataDxfId="14"/>
+    <tableColumn id="4" name="15-may" dataDxfId="13"/>
+    <tableColumn id="5" name="20-may" dataDxfId="12"/>
+    <tableColumn id="6" name="22-may" dataDxfId="11"/>
+    <tableColumn id="7" name="27-may" dataDxfId="10"/>
+    <tableColumn id="8" name="05-jun" dataDxfId="9"/>
+    <tableColumn id="9" name="10-jun" dataDxfId="8"/>
+    <tableColumn id="10" name="12-jun" dataDxfId="7"/>
+    <tableColumn id="11" name="17-jun" dataDxfId="6"/>
+    <tableColumn id="12" name="19-jun" dataDxfId="5"/>
+    <tableColumn id="13" name="24-jun" dataDxfId="4"/>
+    <tableColumn id="14" name="26-jun" dataDxfId="3"/>
+    <tableColumn id="15" name="10-jul" dataDxfId="2"/>
+    <tableColumn id="16" name="22-jul" dataDxfId="1"/>
+    <tableColumn id="17" name="24-jul" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1031,10 +1083,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,7 +1098,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,8 +1144,14 @@
       <c r="O1" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1136,8 +1197,14 @@
       <c r="O2" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1175,8 +1242,14 @@
       <c r="O3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1222,8 +1295,10 @@
       <c r="O4" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1269,8 +1344,14 @@
       <c r="O5" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1312,8 +1393,14 @@
       <c r="O6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1359,8 +1446,14 @@
       <c r="O7" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1406,8 +1499,14 @@
       <c r="O8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1449,8 +1548,12 @@
       <c r="O9" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1494,8 +1597,14 @@
       <c r="O10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1539,8 +1648,12 @@
       <c r="O11" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1586,8 +1699,14 @@
       <c r="O12" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1633,8 +1752,12 @@
       <c r="O13" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1680,8 +1803,14 @@
       <c r="O14" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1727,8 +1856,14 @@
       <c r="O15" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1774,8 +1909,14 @@
       <c r="O16" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1821,8 +1962,14 @@
       <c r="O17" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1868,8 +2015,14 @@
       <c r="O18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1911,8 +2064,14 @@
       <c r="O19" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1958,8 +2117,14 @@
       <c r="O20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2005,8 +2170,14 @@
       <c r="O21" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2052,8 +2223,14 @@
       <c r="O22" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2099,8 +2276,14 @@
       <c r="O23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2146,8 +2329,14 @@
       <c r="O24" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2193,8 +2382,14 @@
       <c r="O25" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2240,8 +2435,14 @@
       <c r="O26" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2287,8 +2488,14 @@
       <c r="O27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2332,8 +2539,14 @@
       <c r="O28" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -2379,8 +2592,14 @@
       <c r="O29" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -2424,8 +2643,14 @@
       <c r="O30" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2468,8 +2693,11 @@
       <c r="O31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2510,8 +2738,11 @@
       <c r="O32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -2552,8 +2783,14 @@
       <c r="O33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -2599,8 +2836,14 @@
       <c r="O34" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -2643,8 +2886,14 @@
       <c r="O35" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2684,6 +2933,15 @@
       <c r="O36" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="P36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="90">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>24-jul</t>
+  </si>
+  <si>
+    <t>29'jul</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -773,26 +798,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q30" totalsRowShown="0">
-  <autoFilter ref="A1:Q30"/>
-  <tableColumns count="17">
-    <tableColumn id="1" name="MATRICULA" dataDxfId="16"/>
-    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="15"/>
-    <tableColumn id="3" name="13-may" dataDxfId="14"/>
-    <tableColumn id="4" name="15-may" dataDxfId="13"/>
-    <tableColumn id="5" name="20-may" dataDxfId="12"/>
-    <tableColumn id="6" name="22-may" dataDxfId="11"/>
-    <tableColumn id="7" name="27-may" dataDxfId="10"/>
-    <tableColumn id="8" name="05-jun" dataDxfId="9"/>
-    <tableColumn id="9" name="10-jun" dataDxfId="8"/>
-    <tableColumn id="10" name="12-jun" dataDxfId="7"/>
-    <tableColumn id="11" name="17-jun" dataDxfId="6"/>
-    <tableColumn id="12" name="19-jun" dataDxfId="5"/>
-    <tableColumn id="13" name="24-jun" dataDxfId="4"/>
-    <tableColumn id="14" name="26-jun" dataDxfId="3"/>
-    <tableColumn id="15" name="10-jul" dataDxfId="2"/>
-    <tableColumn id="16" name="22-jul" dataDxfId="1"/>
-    <tableColumn id="17" name="24-jul" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R30" totalsRowShown="0">
+  <autoFilter ref="A1:R30"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="MATRICULA" dataDxfId="17"/>
+    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="16"/>
+    <tableColumn id="3" name="13-may" dataDxfId="15"/>
+    <tableColumn id="4" name="15-may" dataDxfId="14"/>
+    <tableColumn id="5" name="20-may" dataDxfId="13"/>
+    <tableColumn id="6" name="22-may" dataDxfId="12"/>
+    <tableColumn id="7" name="27-may" dataDxfId="11"/>
+    <tableColumn id="8" name="05-jun" dataDxfId="10"/>
+    <tableColumn id="9" name="10-jun" dataDxfId="9"/>
+    <tableColumn id="10" name="12-jun" dataDxfId="8"/>
+    <tableColumn id="11" name="17-jun" dataDxfId="7"/>
+    <tableColumn id="12" name="19-jun" dataDxfId="6"/>
+    <tableColumn id="13" name="24-jun" dataDxfId="5"/>
+    <tableColumn id="14" name="26-jun" dataDxfId="4"/>
+    <tableColumn id="15" name="10-jul" dataDxfId="3"/>
+    <tableColumn id="16" name="22-jul" dataDxfId="2"/>
+    <tableColumn id="17" name="24-jul" dataDxfId="1"/>
+    <tableColumn id="18" name="29'jul" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1083,13 +1109,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
+      <selection pane="bottomRight" activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1098,7 +1124,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1150,8 +1176,11 @@
       <c r="Q1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1203,8 +1232,11 @@
       <c r="Q2" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1248,8 +1280,11 @@
       <c r="Q3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1297,8 +1332,11 @@
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1350,8 +1388,11 @@
       <c r="Q5" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1399,8 +1440,11 @@
       <c r="Q6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1452,8 +1496,11 @@
       <c r="Q7" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1505,8 +1552,11 @@
       <c r="Q8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1552,8 +1602,11 @@
         <v>60</v>
       </c>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1603,8 +1656,11 @@
       <c r="Q10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1652,8 +1708,11 @@
         <v>60</v>
       </c>
       <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1705,8 +1764,11 @@
       <c r="Q12" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1756,8 +1818,11 @@
         <v>60</v>
       </c>
       <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1809,8 +1874,11 @@
       <c r="Q14" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1862,8 +1930,11 @@
       <c r="Q15" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1915,8 +1986,11 @@
       <c r="Q16" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1968,8 +2042,11 @@
       <c r="Q17" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2021,8 +2098,11 @@
       <c r="Q18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2070,8 +2150,11 @@
       <c r="Q19" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2123,8 +2206,11 @@
       <c r="Q20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2176,8 +2262,11 @@
       <c r="Q21" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2229,8 +2318,11 @@
       <c r="Q22" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2282,8 +2374,11 @@
       <c r="Q23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2335,8 +2430,11 @@
       <c r="Q24" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2388,8 +2486,11 @@
       <c r="Q25" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="Q26" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2494,8 +2598,11 @@
       <c r="Q27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2545,8 +2652,11 @@
       <c r="Q28" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -2598,8 +2708,11 @@
       <c r="Q29" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -2649,8 +2762,11 @@
       <c r="Q30" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2696,8 +2812,11 @@
       <c r="Q31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="P32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -2789,8 +2911,11 @@
       <c r="Q33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -2842,8 +2967,11 @@
       <c r="Q34" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -2892,8 +3020,11 @@
       <c r="Q35" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R35" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2940,7 +3071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="Q37" s="6"/>
     </row>
   </sheetData>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="91">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -288,7 +288,10 @@
     <t>24-jul</t>
   </si>
   <si>
-    <t>29'jul</t>
+    <t>31-jul</t>
+  </si>
+  <si>
+    <t>29-jul</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -798,27 +823,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R30" totalsRowShown="0">
-  <autoFilter ref="A1:R30"/>
-  <tableColumns count="18">
-    <tableColumn id="1" name="MATRICULA" dataDxfId="17"/>
-    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="16"/>
-    <tableColumn id="3" name="13-may" dataDxfId="15"/>
-    <tableColumn id="4" name="15-may" dataDxfId="14"/>
-    <tableColumn id="5" name="20-may" dataDxfId="13"/>
-    <tableColumn id="6" name="22-may" dataDxfId="12"/>
-    <tableColumn id="7" name="27-may" dataDxfId="11"/>
-    <tableColumn id="8" name="05-jun" dataDxfId="10"/>
-    <tableColumn id="9" name="10-jun" dataDxfId="9"/>
-    <tableColumn id="10" name="12-jun" dataDxfId="8"/>
-    <tableColumn id="11" name="17-jun" dataDxfId="7"/>
-    <tableColumn id="12" name="19-jun" dataDxfId="6"/>
-    <tableColumn id="13" name="24-jun" dataDxfId="5"/>
-    <tableColumn id="14" name="26-jun" dataDxfId="4"/>
-    <tableColumn id="15" name="10-jul" dataDxfId="3"/>
-    <tableColumn id="16" name="22-jul" dataDxfId="2"/>
-    <tableColumn id="17" name="24-jul" dataDxfId="1"/>
-    <tableColumn id="18" name="29'jul" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S30" totalsRowShown="0">
+  <autoFilter ref="A1:S30"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="MATRICULA" dataDxfId="18"/>
+    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="17"/>
+    <tableColumn id="3" name="13-may" dataDxfId="16"/>
+    <tableColumn id="4" name="15-may" dataDxfId="15"/>
+    <tableColumn id="5" name="20-may" dataDxfId="14"/>
+    <tableColumn id="6" name="22-may" dataDxfId="13"/>
+    <tableColumn id="7" name="27-may" dataDxfId="12"/>
+    <tableColumn id="8" name="05-jun" dataDxfId="11"/>
+    <tableColumn id="9" name="10-jun" dataDxfId="10"/>
+    <tableColumn id="10" name="12-jun" dataDxfId="9"/>
+    <tableColumn id="11" name="17-jun" dataDxfId="8"/>
+    <tableColumn id="12" name="19-jun" dataDxfId="7"/>
+    <tableColumn id="13" name="24-jun" dataDxfId="6"/>
+    <tableColumn id="14" name="26-jun" dataDxfId="5"/>
+    <tableColumn id="15" name="10-jul" dataDxfId="4"/>
+    <tableColumn id="16" name="22-jul" dataDxfId="3"/>
+    <tableColumn id="17" name="24-jul" dataDxfId="2"/>
+    <tableColumn id="18" name="29-jul" dataDxfId="1"/>
+    <tableColumn id="19" name="31-jul" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1109,13 +1135,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R30" sqref="R30"/>
+      <selection pane="bottomRight" activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1124,7 +1150,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,11 +1202,14 @@
       <c r="Q1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1235,8 +1264,11 @@
       <c r="R2" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1283,8 +1315,11 @@
       <c r="R3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1335,8 +1370,11 @@
       <c r="R4" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1391,8 +1429,11 @@
       <c r="R5" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1443,8 +1484,11 @@
       <c r="R6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1499,8 +1543,11 @@
       <c r="R7" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1555,8 +1602,11 @@
       <c r="R8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1605,8 +1655,9 @@
       <c r="R9" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1659,8 +1710,11 @@
       <c r="R10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1711,8 +1765,11 @@
       <c r="R11" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1767,8 +1824,11 @@
       <c r="R12" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1821,8 +1881,11 @@
       <c r="R13" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1877,8 +1940,11 @@
       <c r="R14" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1933,8 +1999,9 @@
       <c r="R15" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1989,8 +2056,11 @@
       <c r="R16" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2045,8 +2115,11 @@
       <c r="R17" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2101,8 +2174,11 @@
       <c r="R18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2153,8 +2229,11 @@
       <c r="R19" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2209,8 +2288,11 @@
       <c r="R20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2265,8 +2347,11 @@
       <c r="R21" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2321,8 +2406,11 @@
       <c r="R22" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2377,8 +2465,11 @@
       <c r="R23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2433,8 +2524,11 @@
       <c r="R24" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2489,8 +2583,11 @@
       <c r="R25" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2545,8 +2642,11 @@
       <c r="R26" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2601,8 +2701,11 @@
       <c r="R27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2655,8 +2758,11 @@
       <c r="R28" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -2711,8 +2817,11 @@
       <c r="R29" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -2765,8 +2874,11 @@
       <c r="R30" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2815,8 +2927,11 @@
       <c r="R31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2863,8 +2978,11 @@
       <c r="R32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -2914,8 +3032,11 @@
       <c r="R33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -2970,8 +3091,11 @@
       <c r="R34" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -3023,8 +3147,11 @@
       <c r="R35" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S35" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -3070,8 +3197,11 @@
       <c r="Q36" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S36" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="Q37" s="6"/>
     </row>
   </sheetData>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="93">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>29-jul</t>
+  </si>
+  <si>
+    <t>05-ago</t>
+  </si>
+  <si>
+    <t>07-ago</t>
   </si>
 </sst>
 </file>
@@ -390,7 +396,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -823,28 +873,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S30" totalsRowShown="0">
-  <autoFilter ref="A1:S30"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="MATRICULA" dataDxfId="18"/>
-    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="17"/>
-    <tableColumn id="3" name="13-may" dataDxfId="16"/>
-    <tableColumn id="4" name="15-may" dataDxfId="15"/>
-    <tableColumn id="5" name="20-may" dataDxfId="14"/>
-    <tableColumn id="6" name="22-may" dataDxfId="13"/>
-    <tableColumn id="7" name="27-may" dataDxfId="12"/>
-    <tableColumn id="8" name="05-jun" dataDxfId="11"/>
-    <tableColumn id="9" name="10-jun" dataDxfId="10"/>
-    <tableColumn id="10" name="12-jun" dataDxfId="9"/>
-    <tableColumn id="11" name="17-jun" dataDxfId="8"/>
-    <tableColumn id="12" name="19-jun" dataDxfId="7"/>
-    <tableColumn id="13" name="24-jun" dataDxfId="6"/>
-    <tableColumn id="14" name="26-jun" dataDxfId="5"/>
-    <tableColumn id="15" name="10-jul" dataDxfId="4"/>
-    <tableColumn id="16" name="22-jul" dataDxfId="3"/>
-    <tableColumn id="17" name="24-jul" dataDxfId="2"/>
-    <tableColumn id="18" name="29-jul" dataDxfId="1"/>
-    <tableColumn id="19" name="31-jul" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U30" totalsRowShown="0">
+  <autoFilter ref="A1:U30"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="MATRICULA" dataDxfId="20"/>
+    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="19"/>
+    <tableColumn id="3" name="13-may" dataDxfId="18"/>
+    <tableColumn id="4" name="15-may" dataDxfId="17"/>
+    <tableColumn id="5" name="20-may" dataDxfId="16"/>
+    <tableColumn id="6" name="22-may" dataDxfId="15"/>
+    <tableColumn id="7" name="27-may" dataDxfId="14"/>
+    <tableColumn id="8" name="05-jun" dataDxfId="13"/>
+    <tableColumn id="9" name="10-jun" dataDxfId="12"/>
+    <tableColumn id="10" name="12-jun" dataDxfId="11"/>
+    <tableColumn id="11" name="17-jun" dataDxfId="10"/>
+    <tableColumn id="12" name="19-jun" dataDxfId="9"/>
+    <tableColumn id="13" name="24-jun" dataDxfId="8"/>
+    <tableColumn id="14" name="26-jun" dataDxfId="7"/>
+    <tableColumn id="15" name="10-jul" dataDxfId="6"/>
+    <tableColumn id="16" name="22-jul" dataDxfId="5"/>
+    <tableColumn id="17" name="24-jul" dataDxfId="4"/>
+    <tableColumn id="18" name="29-jul" dataDxfId="3"/>
+    <tableColumn id="19" name="31-jul" dataDxfId="2"/>
+    <tableColumn id="20" name="05-ago" dataDxfId="1"/>
+    <tableColumn id="21" name="07-ago" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1135,13 +1187,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomRight" activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1150,7 +1202,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,8 +1260,14 @@
       <c r="S1" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1267,8 +1325,14 @@
       <c r="S2" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1318,8 +1382,14 @@
       <c r="S3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1373,8 +1443,14 @@
       <c r="S4" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1432,8 +1508,12 @@
       <c r="S5" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5" s="2"/>
+      <c r="U5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1487,8 +1567,12 @@
       <c r="S6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6" s="2"/>
+      <c r="U6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1546,8 +1630,14 @@
       <c r="S7" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1605,8 +1695,14 @@
       <c r="S8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1656,8 +1752,10 @@
         <v>60</v>
       </c>
       <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1713,8 +1811,12 @@
       <c r="S10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1768,8 +1870,14 @@
       <c r="S11" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1827,8 +1935,12 @@
       <c r="S12" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T12" s="2"/>
+      <c r="U12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1884,8 +1996,14 @@
       <c r="S13" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1943,8 +2061,12 @@
       <c r="S14" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14" s="2"/>
+      <c r="U14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2000,8 +2122,14 @@
         <v>60</v>
       </c>
       <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2059,8 +2187,14 @@
       <c r="S16" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2252,12 @@
       <c r="S17" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2177,8 +2315,14 @@
       <c r="S18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2232,8 +2376,14 @@
       <c r="S19" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2291,8 +2441,14 @@
       <c r="S20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2350,8 +2506,14 @@
       <c r="S21" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2409,8 +2571,14 @@
       <c r="S22" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2468,8 +2636,14 @@
       <c r="S23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2527,8 +2701,14 @@
       <c r="S24" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2586,8 +2766,12 @@
       <c r="S25" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T25" s="2"/>
+      <c r="U25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2645,8 +2829,14 @@
       <c r="S26" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2704,8 +2894,12 @@
       <c r="S27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2761,8 +2955,14 @@
       <c r="S28" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -2820,8 +3020,14 @@
       <c r="S29" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -2877,8 +3083,14 @@
       <c r="S30" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2930,8 +3142,11 @@
       <c r="S31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2981,8 +3196,14 @@
       <c r="S32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T32" t="s">
+        <v>60</v>
+      </c>
+      <c r="U32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -3035,8 +3256,11 @@
       <c r="S33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -3094,8 +3318,11 @@
       <c r="S34" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -3150,8 +3377,14 @@
       <c r="S35" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -3200,8 +3433,14 @@
       <c r="S36" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="Q37" s="6"/>
     </row>
   </sheetData>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="95">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>07-ago</t>
+  </si>
+  <si>
+    <t>12-ago</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -873,30 +901,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U30" totalsRowShown="0">
-  <autoFilter ref="A1:U30"/>
-  <tableColumns count="21">
-    <tableColumn id="1" name="MATRICULA" dataDxfId="20"/>
-    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="19"/>
-    <tableColumn id="3" name="13-may" dataDxfId="18"/>
-    <tableColumn id="4" name="15-may" dataDxfId="17"/>
-    <tableColumn id="5" name="20-may" dataDxfId="16"/>
-    <tableColumn id="6" name="22-may" dataDxfId="15"/>
-    <tableColumn id="7" name="27-may" dataDxfId="14"/>
-    <tableColumn id="8" name="05-jun" dataDxfId="13"/>
-    <tableColumn id="9" name="10-jun" dataDxfId="12"/>
-    <tableColumn id="10" name="12-jun" dataDxfId="11"/>
-    <tableColumn id="11" name="17-jun" dataDxfId="10"/>
-    <tableColumn id="12" name="19-jun" dataDxfId="9"/>
-    <tableColumn id="13" name="24-jun" dataDxfId="8"/>
-    <tableColumn id="14" name="26-jun" dataDxfId="7"/>
-    <tableColumn id="15" name="10-jul" dataDxfId="6"/>
-    <tableColumn id="16" name="22-jul" dataDxfId="5"/>
-    <tableColumn id="17" name="24-jul" dataDxfId="4"/>
-    <tableColumn id="18" name="29-jul" dataDxfId="3"/>
-    <tableColumn id="19" name="31-jul" dataDxfId="2"/>
-    <tableColumn id="20" name="05-ago" dataDxfId="1"/>
-    <tableColumn id="21" name="07-ago" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V30" totalsRowShown="0">
+  <autoFilter ref="A1:V30"/>
+  <tableColumns count="22">
+    <tableColumn id="1" name="MATRICULA" dataDxfId="21"/>
+    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="20"/>
+    <tableColumn id="3" name="13-may" dataDxfId="19"/>
+    <tableColumn id="4" name="15-may" dataDxfId="18"/>
+    <tableColumn id="5" name="20-may" dataDxfId="17"/>
+    <tableColumn id="6" name="22-may" dataDxfId="16"/>
+    <tableColumn id="7" name="27-may" dataDxfId="15"/>
+    <tableColumn id="8" name="05-jun" dataDxfId="14"/>
+    <tableColumn id="9" name="10-jun" dataDxfId="13"/>
+    <tableColumn id="10" name="12-jun" dataDxfId="12"/>
+    <tableColumn id="11" name="17-jun" dataDxfId="11"/>
+    <tableColumn id="12" name="19-jun" dataDxfId="10"/>
+    <tableColumn id="13" name="24-jun" dataDxfId="9"/>
+    <tableColumn id="14" name="26-jun" dataDxfId="8"/>
+    <tableColumn id="15" name="10-jul" dataDxfId="7"/>
+    <tableColumn id="16" name="22-jul" dataDxfId="6"/>
+    <tableColumn id="17" name="24-jul" dataDxfId="5"/>
+    <tableColumn id="18" name="29-jul" dataDxfId="4"/>
+    <tableColumn id="19" name="31-jul" dataDxfId="3"/>
+    <tableColumn id="20" name="05-ago" dataDxfId="2"/>
+    <tableColumn id="21" name="07-ago" dataDxfId="1"/>
+    <tableColumn id="22" name="12-ago" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1187,13 +1216,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U37" sqref="U37"/>
+      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1202,7 +1231,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1266,8 +1295,11 @@
       <c r="U1" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1331,8 +1363,11 @@
       <c r="U2" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1388,8 +1423,11 @@
       <c r="U3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1449,8 +1487,11 @@
       <c r="U4" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1512,8 +1553,11 @@
       <c r="U5" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1571,8 +1615,11 @@
       <c r="U6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1636,8 +1683,11 @@
       <c r="U7" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1701,8 +1751,11 @@
       <c r="U8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V8" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1754,8 +1807,9 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1815,8 +1869,11 @@
       <c r="U10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1876,8 +1933,11 @@
       <c r="U11" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1939,8 +1999,11 @@
       <c r="U12" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2002,8 +2065,11 @@
       <c r="U13" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2065,8 +2131,11 @@
       <c r="U14" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2128,8 +2197,11 @@
       <c r="U15" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2193,8 +2265,11 @@
       <c r="U16" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2256,8 +2331,11 @@
         <v>60</v>
       </c>
       <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2321,8 +2399,11 @@
       <c r="U18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2382,8 +2463,11 @@
       <c r="U19" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2447,8 +2531,11 @@
       <c r="U20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2512,8 +2599,11 @@
       <c r="U21" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2577,8 +2667,11 @@
       <c r="U22" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2642,8 +2735,11 @@
       <c r="U23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2707,8 +2803,11 @@
       <c r="U24" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2770,8 +2869,11 @@
       <c r="U25" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2835,8 +2937,11 @@
       <c r="U26" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2898,8 +3003,11 @@
         <v>60</v>
       </c>
       <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2961,8 +3069,11 @@
       <c r="U28" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -3026,8 +3137,11 @@
       <c r="U29" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -3089,8 +3203,11 @@
       <c r="U30" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -3145,8 +3262,11 @@
       <c r="T31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -3202,8 +3322,11 @@
       <c r="U32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -3260,7 +3383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -3321,8 +3444,11 @@
       <c r="U34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -3383,8 +3509,11 @@
       <c r="U35" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V35" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -3439,8 +3568,11 @@
       <c r="U36" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V36" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="Q37" s="6"/>
     </row>
   </sheetData>

--- a/asistencia/Paralelo 1.xlsx
+++ b/asistencia/Paralelo 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="97">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>19-ago</t>
+  </si>
+  <si>
+    <t>21-ago</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -901,31 +951,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V30" totalsRowShown="0">
-  <autoFilter ref="A1:V30"/>
-  <tableColumns count="22">
-    <tableColumn id="1" name="MATRICULA" dataDxfId="21"/>
-    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="20"/>
-    <tableColumn id="3" name="13-may" dataDxfId="19"/>
-    <tableColumn id="4" name="15-may" dataDxfId="18"/>
-    <tableColumn id="5" name="20-may" dataDxfId="17"/>
-    <tableColumn id="6" name="22-may" dataDxfId="16"/>
-    <tableColumn id="7" name="27-may" dataDxfId="15"/>
-    <tableColumn id="8" name="05-jun" dataDxfId="14"/>
-    <tableColumn id="9" name="10-jun" dataDxfId="13"/>
-    <tableColumn id="10" name="12-jun" dataDxfId="12"/>
-    <tableColumn id="11" name="17-jun" dataDxfId="11"/>
-    <tableColumn id="12" name="19-jun" dataDxfId="10"/>
-    <tableColumn id="13" name="24-jun" dataDxfId="9"/>
-    <tableColumn id="14" name="26-jun" dataDxfId="8"/>
-    <tableColumn id="15" name="10-jul" dataDxfId="7"/>
-    <tableColumn id="16" name="22-jul" dataDxfId="6"/>
-    <tableColumn id="17" name="24-jul" dataDxfId="5"/>
-    <tableColumn id="18" name="29-jul" dataDxfId="4"/>
-    <tableColumn id="19" name="31-jul" dataDxfId="3"/>
-    <tableColumn id="20" name="05-ago" dataDxfId="2"/>
-    <tableColumn id="21" name="07-ago" dataDxfId="1"/>
-    <tableColumn id="22" name="12-ago" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X30" totalsRowShown="0">
+  <autoFilter ref="A1:X30"/>
+  <tableColumns count="24">
+    <tableColumn id="1" name="MATRICULA" dataDxfId="23"/>
+    <tableColumn id="2" name="NOMBRE_ESTUDIANTE" dataDxfId="22"/>
+    <tableColumn id="3" name="13-may" dataDxfId="21"/>
+    <tableColumn id="4" name="15-may" dataDxfId="20"/>
+    <tableColumn id="5" name="20-may" dataDxfId="19"/>
+    <tableColumn id="6" name="22-may" dataDxfId="18"/>
+    <tableColumn id="7" name="27-may" dataDxfId="17"/>
+    <tableColumn id="8" name="05-jun" dataDxfId="16"/>
+    <tableColumn id="9" name="10-jun" dataDxfId="15"/>
+    <tableColumn id="10" name="12-jun" dataDxfId="14"/>
+    <tableColumn id="11" name="17-jun" dataDxfId="13"/>
+    <tableColumn id="12" name="19-jun" dataDxfId="12"/>
+    <tableColumn id="13" name="24-jun" dataDxfId="11"/>
+    <tableColumn id="14" name="26-jun" dataDxfId="10"/>
+    <tableColumn id="15" name="10-jul" dataDxfId="9"/>
+    <tableColumn id="16" name="22-jul" dataDxfId="8"/>
+    <tableColumn id="17" name="24-jul" dataDxfId="7"/>
+    <tableColumn id="18" name="29-jul" dataDxfId="6"/>
+    <tableColumn id="19" name="31-jul" dataDxfId="5"/>
+    <tableColumn id="20" name="05-ago" dataDxfId="4"/>
+    <tableColumn id="21" name="07-ago" dataDxfId="3"/>
+    <tableColumn id="22" name="12-ago" dataDxfId="2"/>
+    <tableColumn id="23" name="19-ago" dataDxfId="1"/>
+    <tableColumn id="24" name="21-ago" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1216,13 +1268,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
+      <selection pane="bottomRight" activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1231,7 +1283,7 @@
     <col min="2" max="2" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1298,8 +1350,14 @@
       <c r="V1" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1366,8 +1424,14 @@
       <c r="V2" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="W2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1426,8 +1490,14 @@
       <c r="V3" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1490,8 +1560,14 @@
       <c r="V4" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1556,8 +1632,12 @@
       <c r="V5" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1618,8 +1698,14 @@
       <c r="V6" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1686,8 +1772,12 @@
       <c r="V7" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1754,8 +1844,14 @@
       <c r="V8" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="W8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1808,8 +1904,10 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1872,8 +1970,12 @@
       <c r="V10" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="W10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1936,8 +2038,12 @@
       <c r="V11" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2002,8 +2108,12 @@
       <c r="V12" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2068,8 +2178,14 @@
       <c r="V13" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2134,8 +2250,14 @@
       <c r="V14" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2200,8 +2322,14 @@
       <c r="V15" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2268,8 +2396,14 @@
       <c r="V16" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2334,8 +2468,14 @@
       <c r="V17" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2402,8 +2542,14 @@
       <c r="V18" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2466,8 +2612,14 @@
       <c r="V19" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2534,8 +2686,14 @@
       <c r="V20" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2602,8 +2760,14 @@
       <c r="V21" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2670,8 +2834,14 @@
       <c r="V22" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2738,8 +2908,14 @@
       <c r="V23" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2806,8 +2982,14 @@
       <c r="V24" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2872,8 +3054,12 @@
       <c r="V25" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2940,8 +3126,14 @@
       <c r="V26" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -3006,8 +3198,12 @@
       <c r="V27" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -3072,8 +3268,12 @@
       <c r="V28" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -3140,8 +3340,14 @@
       <c r="V29" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="W29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -3206,8 +3412,14 @@
       <c r="V30" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="W30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -3265,8 +3477,11 @@
       <c r="V31" t="s">
         <v>60</v>
       </c>
+      <c r="W31" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -3325,8 +3540,14 @@
       <c r="V32" t="s">
         <v>60</v>
       </c>
+      <c r="W32" t="s">
+        <v>60</v>
+      </c>
+      <c r="X32" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -3382,8 +3603,14 @@
       <c r="T33" t="s">
         <v>60</v>
       </c>
+      <c r="W33" t="s">
+        <v>60</v>
+      </c>
+      <c r="X33" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -3447,8 +3674,14 @@
       <c r="V34" t="s">
         <v>60</v>
       </c>
+      <c r="W34" t="s">
+        <v>60</v>
+      </c>
+      <c r="X34" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -3512,8 +3745,14 @@
       <c r="V35" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="W35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X35" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -3571,8 +3810,14 @@
       <c r="V36" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="W36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X36" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="Q37" s="6"/>
     </row>
   </sheetData>
